--- a/data/trans_orig/P14B24_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5834487F-3898-42C4-ADD8-308C6742AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21CB30E7-C770-4D47-9F94-AF90AD67C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{928457C0-8AD4-4079-A785-924446801E6A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03458431-06C2-4A4E-B3CC-BB4B7D5D4808}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>49,95%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>52,27%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,19 +108,19 @@
     <t>50,05%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>47,73%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,49 +132,49 @@
     <t>76,25%</t>
   </si>
   <si>
-    <t>38,91%</t>
+    <t>37,56%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>61,09%</t>
+    <t>62,44%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -183,49 +183,55 @@
     <t>71,17%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>53,75%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>46,25%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -234,55 +240,55 @@
     <t>67,33%</t>
   </si>
   <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>72,3%</t>
   </si>
   <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -291,109 +297,109 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -405,307 +411,313 @@
     <t>33,27%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>51,5%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>58,89%</t>
   </si>
   <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>65,49%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>34,51%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>68,87%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>37,65%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>62,31%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>68,72%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>37,69%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7463D194-9572-4855-8F66-ED97432B0099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB34D31-58F8-4B62-9B89-157B9921E955}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,7 +1599,7 @@
         <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1614,13 @@
         <v>4084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1617,13 +1629,13 @@
         <v>22485</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -1632,13 +1644,13 @@
         <v>26569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,7 +1706,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1706,13 +1718,13 @@
         <v>9238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -1721,13 +1733,13 @@
         <v>37315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -1736,13 +1748,13 @@
         <v>46553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1769,13 @@
         <v>4481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -1772,13 +1784,13 @@
         <v>13355</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -1787,13 +1799,13 @@
         <v>17836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1861,13 +1873,13 @@
         <v>9673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -1876,13 +1888,13 @@
         <v>34545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -1891,13 +1903,13 @@
         <v>44218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1924,13 @@
         <v>14992</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1927,13 +1939,13 @@
         <v>30415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -1942,13 +1954,13 @@
         <v>45408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2028,13 @@
         <v>37119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2031,13 +2043,13 @@
         <v>146707</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>170</v>
@@ -2046,13 +2058,13 @@
         <v>183826</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2079,13 @@
         <v>26656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -2082,13 +2094,13 @@
         <v>85598</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -2097,13 +2109,13 @@
         <v>112254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,7 +2171,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E8B1D8-ECBE-4E4E-A401-EC5CBCB88E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E627E-BACF-424C-9035-7E923389BC21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2304,13 +2316,13 @@
         <v>2168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2319,13 +2331,13 @@
         <v>5029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2334,13 +2346,13 @@
         <v>7197</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2367,13 @@
         <v>4348</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2370,13 +2382,13 @@
         <v>2431</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2385,13 +2397,13 @@
         <v>6778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2471,13 @@
         <v>25992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -2474,13 +2486,13 @@
         <v>29055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>77</v>
@@ -2489,13 +2501,13 @@
         <v>55047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2522,13 @@
         <v>8180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -2525,13 +2537,13 @@
         <v>20282</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -2540,13 +2552,13 @@
         <v>28462</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2626,13 @@
         <v>17725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -2629,13 +2641,13 @@
         <v>54201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -2647,10 +2659,10 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2677,13 @@
         <v>9340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -2680,13 +2692,13 @@
         <v>29160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2695,13 +2707,13 @@
         <v>38501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2769,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2781,13 @@
         <v>18436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -2784,13 +2796,13 @@
         <v>60055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -2799,13 +2811,13 @@
         <v>78491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2832,13 @@
         <v>11131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -2835,13 +2847,13 @@
         <v>27144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2850,13 +2862,13 @@
         <v>38275</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2936,13 @@
         <v>31128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -2939,13 +2951,13 @@
         <v>78174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2954,13 +2966,13 @@
         <v>109302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2987,13 @@
         <v>18826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -2990,13 +3002,13 @@
         <v>35590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -3005,13 +3017,13 @@
         <v>54415</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3091,13 @@
         <v>95449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>337</v>
@@ -3094,13 +3106,13 @@
         <v>226513</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>434</v>
@@ -3109,13 +3121,13 @@
         <v>321963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3142,13 @@
         <v>51825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -3145,13 +3157,13 @@
         <v>114607</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -3160,13 +3172,13 @@
         <v>166432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3234,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B24_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21CB30E7-C770-4D47-9F94-AF90AD67C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEEB190-DF3C-429A-90AB-CE47DD08EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03458431-06C2-4A4E-B3CC-BB4B7D5D4808}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{29872380-CF96-4326-8E2A-9DDA46228BD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
-  <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+  <si>
+    <t>Población cuyos trastornos de ansiedad le limita en 2016 (Tasa respuesta: 4,19%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -84,19 +84,19 @@
     <t>49,95%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>52,27%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,139 +108,139 @@
     <t>50,05%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>47,73%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>37,56%</t>
+    <t>37,44%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>62,44%</t>
+    <t>62,56%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>71,17%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>36,28%</t>
+    <t>34,81%</t>
   </si>
   <si>
     <t>89,71%</t>
@@ -249,19 +249,19 @@
     <t>73,64%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>72,3%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -270,25 +270,25 @@
     <t>10,29%</t>
   </si>
   <si>
-    <t>63,72%</t>
+    <t>65,19%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -297,109 +297,109 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -486,9 +486,6 @@
     <t>55,96%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
     <t>23,94%</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
   </si>
   <si>
     <t>34,08%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
   </si>
   <si>
     <t>44,04%</t>
@@ -1129,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB34D31-58F8-4B62-9B89-157B9921E955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CC3398-168D-4547-A8D8-C0596AB7AA85}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2192,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E627E-BACF-424C-9035-7E923389BC21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37C7B82-187E-402F-B186-A9E2CA21F51E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2501,7 @@
         <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2516,13 @@
         <v>8180</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -2537,13 +2531,13 @@
         <v>20282</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -2552,13 +2546,13 @@
         <v>28462</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2620,13 @@
         <v>17725</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -2641,13 +2635,13 @@
         <v>54201</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -2659,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2671,13 @@
         <v>9340</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -2692,13 +2686,13 @@
         <v>29160</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2710,10 +2704,10 @@
         <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2775,13 @@
         <v>18436</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -2796,13 +2790,13 @@
         <v>60055</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -2811,13 +2805,13 @@
         <v>78491</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2826,13 @@
         <v>11131</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -2847,13 +2841,13 @@
         <v>27144</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2862,13 +2856,13 @@
         <v>38275</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2930,13 @@
         <v>31128</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -2951,13 +2945,13 @@
         <v>78174</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2966,13 +2960,13 @@
         <v>109302</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2981,13 @@
         <v>18826</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -3002,13 +2996,13 @@
         <v>35590</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -3017,13 +3011,13 @@
         <v>54415</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3085,13 @@
         <v>95449</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>337</v>
@@ -3106,13 +3100,13 @@
         <v>226513</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>434</v>
@@ -3124,10 +3118,10 @@
         <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3136,13 @@
         <v>51825</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -3157,13 +3151,13 @@
         <v>114607</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -3172,13 +3166,13 @@
         <v>166432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
